--- a/docs/BinaryCharacter.xlsx
+++ b/docs/BinaryCharacter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icesiedu-my.sharepoint.com/personal/1193266644_u_icesi_edu_co/Documents/Escritorio/Arduino/Arduino-Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icesiedu-my.sharepoint.com/personal/1193266644_u_icesi_edu_co/Documents/Escritorio/Arduino/Arduino-Project/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="148" documentId="8_{B4E02906-D8B5-44CD-B8AF-515D7DCF33FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C44506E2-E020-4EE1-A8AE-41E818C20D75}"/>
+  <xr:revisionPtr revIDLastSave="299" documentId="8_{B4E02906-D8B5-44CD-B8AF-515D7DCF33FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3727899D-43E6-4EBB-90AD-090A9DCA028D}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="2270" windowWidth="14400" windowHeight="7810" xr2:uid="{A9DC1A64-FDF4-4373-B66E-C94A41E3E3B0}"/>
+    <workbookView minimized="1" xWindow="1240" yWindow="2270" windowWidth="14400" windowHeight="7810" xr2:uid="{A9DC1A64-FDF4-4373-B66E-C94A41E3E3B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="167">
   <si>
     <t>a</t>
   </si>
@@ -277,6 +277,264 @@
   </si>
   <si>
     <t>01 01 10 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caracteres </t>
+  </si>
+  <si>
+    <t>espacio ( )</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>@</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>Vocales con tildes</t>
+  </si>
+  <si>
+    <t>á</t>
+  </si>
+  <si>
+    <t>é</t>
+  </si>
+  <si>
+    <t>í</t>
+  </si>
+  <si>
+    <t>ó</t>
+  </si>
+  <si>
+    <t>ú</t>
+  </si>
+  <si>
+    <t>Á</t>
+  </si>
+  <si>
+    <t>É</t>
+  </si>
+  <si>
+    <t>Í</t>
+  </si>
+  <si>
+    <t>Ó</t>
+  </si>
+  <si>
+    <t>Ú</t>
+  </si>
+  <si>
+    <t>Números</t>
+  </si>
+  <si>
+    <t>11 10 00 01</t>
+  </si>
+  <si>
+    <t>11 10 10 01</t>
+  </si>
+  <si>
+    <t>11 10 11 01</t>
+  </si>
+  <si>
+    <t>11 11 00 11</t>
+  </si>
+  <si>
+    <t>11 11 10 10</t>
+  </si>
+  <si>
+    <t>11 00 00 01</t>
+  </si>
+  <si>
+    <t>11 00 10 01</t>
+  </si>
+  <si>
+    <t>11 00 11 01</t>
+  </si>
+  <si>
+    <t>11 01 00 11</t>
+  </si>
+  <si>
+    <t>11 01 10 10</t>
+  </si>
+  <si>
+    <t>98 Caracteres</t>
+  </si>
+  <si>
+    <t>00 11 00 00</t>
+  </si>
+  <si>
+    <t>00 11 00 01</t>
+  </si>
+  <si>
+    <t>00 11 00 10</t>
+  </si>
+  <si>
+    <t>00 11 00 11</t>
+  </si>
+  <si>
+    <t>00 11 01 00</t>
+  </si>
+  <si>
+    <t>00 11 01 01</t>
+  </si>
+  <si>
+    <t>00 11 01 10</t>
+  </si>
+  <si>
+    <t>00 11 01 11</t>
+  </si>
+  <si>
+    <t>00 11 10 00</t>
+  </si>
+  <si>
+    <t>00 11 10 01</t>
+  </si>
+  <si>
+    <t>00 10 00 00</t>
+  </si>
+  <si>
+    <t>00 10 00 01</t>
+  </si>
+  <si>
+    <t>00 10 00 10</t>
+  </si>
+  <si>
+    <t>00 10 00 11</t>
+  </si>
+  <si>
+    <t>00 10 01 00</t>
+  </si>
+  <si>
+    <t>00 10 01 01</t>
+  </si>
+  <si>
+    <t>00 10 01 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00 10 10 00	</t>
+  </si>
+  <si>
+    <t>00 10 10 01</t>
+  </si>
+  <si>
+    <t>00 10 10 10</t>
+  </si>
+  <si>
+    <t>00 10 10 11</t>
+  </si>
+  <si>
+    <t>00 10 11 01</t>
+  </si>
+  <si>
+    <t>00 10 11 10</t>
+  </si>
+  <si>
+    <t>00 10 11 00</t>
+  </si>
+  <si>
+    <t>01 01 10 11</t>
+  </si>
+  <si>
+    <t>01 01 11 01</t>
+  </si>
+  <si>
+    <t>01 01 11 11</t>
+  </si>
+  <si>
+    <t>00 10 11 11</t>
+  </si>
+  <si>
+    <t>01 01 11 00</t>
+  </si>
+  <si>
+    <t>00 11 10 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00 11 10 11	</t>
+  </si>
+  <si>
+    <t>01 00 00 00</t>
+  </si>
+  <si>
+    <t>01 11 11 00</t>
+  </si>
+  <si>
+    <t>01 11 10 11</t>
+  </si>
+  <si>
+    <t>01 11 11 01</t>
+  </si>
+  <si>
+    <t>01 11 11 10</t>
   </si>
 </sst>
 </file>
@@ -341,11 +599,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -661,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1543D1-E663-4681-9849-96D9A1965115}">
-  <dimension ref="B1:F27"/>
+  <dimension ref="B1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -672,9 +939,11 @@
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.90625" customWidth="1"/>
     <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>53</v>
       </c>
@@ -687,8 +956,22 @@
       <c r="F1" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -702,8 +985,20 @@
       <c r="F2" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -717,8 +1012,20 @@
       <c r="F3" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -732,8 +1039,20 @@
       <c r="F4" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -747,8 +1066,20 @@
       <c r="F5" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -762,8 +1093,20 @@
       <c r="F6" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -777,8 +1120,20 @@
       <c r="F7" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -792,8 +1147,20 @@
       <c r="F8" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -807,8 +1174,20 @@
       <c r="F9" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -822,8 +1201,20 @@
       <c r="F10" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -837,8 +1228,20 @@
       <c r="F11" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -852,8 +1255,14 @@
       <c r="F12" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
@@ -867,8 +1276,14 @@
       <c r="F13" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
@@ -882,8 +1297,14 @@
       <c r="F14" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
@@ -897,8 +1318,14 @@
       <c r="F15" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
@@ -912,8 +1339,14 @@
       <c r="F16" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
@@ -927,8 +1360,20 @@
       <c r="F17" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
@@ -942,8 +1387,23 @@
       <c r="F18" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="P18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
@@ -957,8 +1417,20 @@
       <c r="F19" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K19" s="5">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
@@ -972,8 +1444,20 @@
       <c r="F20" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K20" s="5">
+        <v>2</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
@@ -987,8 +1471,20 @@
       <c r="F21" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K21" s="5">
+        <v>3</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1002,8 +1498,20 @@
       <c r="F22" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K22" s="5">
+        <v>4</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1017,8 +1525,20 @@
       <c r="F23" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K23" s="5">
+        <v>5</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1032,8 +1552,20 @@
       <c r="F24" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H24" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K24" s="5">
+        <v>6</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
@@ -1047,8 +1579,20 @@
       <c r="F25" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K25" s="5">
+        <v>7</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
@@ -1062,8 +1606,20 @@
       <c r="F26" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H26" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K26" s="5">
+        <v>8</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1076,6 +1632,18 @@
       </c>
       <c r="F27" s="1" t="s">
         <v>80</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K27" s="5">
+        <v>9</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
